--- a/BackTest/2020-01-19 BackTest BTT.xlsx
+++ b/BackTest/2020-01-19 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5863,7 +5863,7 @@
         <v>217305943.858478</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>230552371.3518429</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>230393017.4047428</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>234839197.7975428</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>234839197.7975428</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>237395840.5455428</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>265300499.227979</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>230803079.5859525</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>245663782.6941525</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>238572243.7799525</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>262338681.2653525</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>246190463.4463525</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>243966645.6169525</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>228565303.5201525</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>232375303.5150525</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>209122560.0102525</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>208643937.2512525</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>213243452.7589525</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>213143452.7589525</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>213193452.7589525</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>209317137.2204525</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>209341444.3583525</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>209341444.3583525</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>206794727.4222524</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>194380441.8087524</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>192001814.1946524</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>194163856.5789025</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>192081352.5145026</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>192432557.6992026</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>192433730.6380026</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>190020856.0406026</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>187285566.8132026</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>184866066.2708026</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>187236915.0834025</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>186771563.4044026</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>186506730.8600025</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>186506730.8600025</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>186506730.8600025</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>139504752.6868013</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>138417380.6803012</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>107606591.9304012</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>107710935.7252012</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -9955,586 +9955,538 @@
         <v>16584847.31661434</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0.4183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3359577.4166</v>
+      </c>
+      <c r="G291" t="n">
+        <v>16584847.31661434</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.4165</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.4165</v>
+      </c>
+      <c r="F292" t="n">
+        <v>128568.1115</v>
+      </c>
+      <c r="G292" t="n">
+        <v>16456279.20511434</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.4163</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.4163</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="F293" t="n">
+        <v>333852.02</v>
+      </c>
+      <c r="G293" t="n">
+        <v>16122427.18511434</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.4149</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.4162</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.4149</v>
+      </c>
+      <c r="F294" t="n">
+        <v>40615680.2166</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-24493253.03148566</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.4147</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.4147</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.4147</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.4147</v>
+      </c>
+      <c r="F295" t="n">
+        <v>7535926.0066</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-32029179.03808566</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="F296" t="n">
+        <v>20494606.0781</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-52523785.11618567</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="F297" t="n">
+        <v>10036382.7376</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-52523785.11618567</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="F298" t="n">
+        <v>2761702.2247</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-55285487.34088567</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="F299" t="n">
+        <v>531131</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-54754356.34088567</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="F300" t="n">
+        <v>342624</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-54754356.34088567</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="F301" t="n">
+        <v>18155.5502</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-54736200.79068567</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="F302" t="n">
+        <v>71616.13770000001</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-54736200.79068567</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="F303" t="n">
+        <v>95493.88370000001</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-54831694.67438567</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="F304" t="n">
+        <v>322832.1935</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-54831694.67438567</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="F305" t="n">
+        <v>355230.0341</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-54476464.64028566</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="C291" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="D291" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="E291" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="F291" t="n">
-        <v>3359577.4166</v>
-      </c>
-      <c r="G291" t="n">
-        <v>16584847.31661434</v>
-      </c>
-      <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="C292" t="n">
-        <v>0.4165</v>
-      </c>
-      <c r="D292" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="E292" t="n">
-        <v>0.4165</v>
-      </c>
-      <c r="F292" t="n">
-        <v>128568.1115</v>
-      </c>
-      <c r="G292" t="n">
-        <v>16456279.20511434</v>
-      </c>
-      <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>0.4163</v>
-      </c>
-      <c r="C293" t="n">
-        <v>0.4158</v>
-      </c>
-      <c r="D293" t="n">
-        <v>0.4163</v>
-      </c>
-      <c r="E293" t="n">
-        <v>0.4158</v>
-      </c>
-      <c r="F293" t="n">
-        <v>333852.02</v>
-      </c>
-      <c r="G293" t="n">
-        <v>16122427.18511434</v>
-      </c>
-      <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0.4165</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0.4158</v>
-      </c>
-      <c r="C294" t="n">
-        <v>0.4149</v>
-      </c>
-      <c r="D294" t="n">
-        <v>0.4162</v>
-      </c>
-      <c r="E294" t="n">
-        <v>0.4149</v>
-      </c>
-      <c r="F294" t="n">
-        <v>40615680.2166</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-24493253.03148566</v>
-      </c>
-      <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0.4158</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.4147</v>
-      </c>
-      <c r="C295" t="n">
-        <v>0.4147</v>
-      </c>
-      <c r="D295" t="n">
-        <v>0.4147</v>
-      </c>
-      <c r="E295" t="n">
-        <v>0.4147</v>
-      </c>
-      <c r="F295" t="n">
-        <v>7535926.0066</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-32029179.03808566</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="C296" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="D296" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="E296" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="F296" t="n">
-        <v>20494606.0781</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-52523785.11618567</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="C297" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="E297" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="F297" t="n">
-        <v>10036382.7376</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-52523785.11618567</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="C298" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="D298" t="n">
-        <v>0.4145</v>
-      </c>
-      <c r="E298" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="F298" t="n">
-        <v>2761702.2247</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-55285487.34088567</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="C299" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="D299" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="E299" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="F299" t="n">
-        <v>531131</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-54754356.34088567</v>
-      </c>
-      <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="C300" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="D300" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="E300" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="F300" t="n">
-        <v>342624</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-54754356.34088567</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="C301" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="D301" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="E301" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="F301" t="n">
-        <v>18155.5502</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-54736200.79068567</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="C302" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="D302" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="E302" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="F302" t="n">
-        <v>71616.13770000001</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-54736200.79068567</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="C303" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="D303" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="E303" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="F303" t="n">
-        <v>95493.88370000001</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-54831694.67438567</v>
-      </c>
-      <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="C304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="D304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="E304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="F304" t="n">
-        <v>322832.1935</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-54831694.67438567</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="C305" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="D305" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="E305" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="F305" t="n">
-        <v>355230.0341</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-54476464.64028566</v>
-      </c>
-      <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10563,12 +10515,14 @@
         <v>-54476464.64028566</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0.4199</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10602,12 +10556,14 @@
         <v>-54476464.64028566</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0.4199</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10644,7 +10600,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10681,7 +10639,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10718,7 +10678,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10755,7 +10717,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10792,7 +10756,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10826,12 +10792,12 @@
         <v>-55732916.52448566</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10865,12 +10831,12 @@
         <v>-55742662.39908566</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10904,12 +10870,12 @@
         <v>-55075209.10438567</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0.4185</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10943,12 +10909,12 @@
         <v>-44966147.85008567</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10982,12 +10948,12 @@
         <v>-44964303.63938567</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11024,7 +10990,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11061,7 +11029,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11098,7 +11068,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11135,7 +11107,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11172,7 +11146,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11209,7 +11185,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11246,7 +11224,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11283,7 +11263,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11320,7 +11302,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11357,7 +11341,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11394,7 +11380,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11428,12 +11416,12 @@
         <v>-45968847.86208566</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,7 +11458,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11507,7 +11497,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11544,7 +11536,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11581,7 +11575,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11618,7 +11614,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,7 +11653,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11689,12 +11689,12 @@
         <v>-45722880.13568567</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11731,7 +11731,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11768,7 +11770,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11802,12 +11806,12 @@
         <v>-49576729.14878567</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11841,12 +11845,12 @@
         <v>-52546260.31878567</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11880,12 +11884,12 @@
         <v>-54533711.18048567</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11919,12 +11923,12 @@
         <v>-54299573.9760839</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11958,12 +11962,12 @@
         <v>-54306583.9760839</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11997,12 +12001,12 @@
         <v>-54346749.3512839</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12039,7 +12043,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12076,7 +12082,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12113,7 +12121,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12150,7 +12160,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12187,7 +12199,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12224,7 +12238,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12261,7 +12277,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12298,7 +12316,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12335,7 +12355,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12369,12 +12391,12 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12411,7 +12433,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12445,12 +12469,12 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12487,7 +12511,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12524,7 +12550,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12561,7 +12589,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12598,7 +12628,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12635,7 +12667,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12672,7 +12706,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12709,7 +12745,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12746,7 +12784,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12783,7 +12823,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12820,7 +12862,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,7 +12901,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12894,7 +12940,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12931,7 +12979,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12968,7 +13018,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13005,7 +13057,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13042,7 +13096,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13079,7 +13135,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13116,7 +13174,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13153,7 +13213,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13190,7 +13252,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13227,7 +13291,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13264,7 +13330,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13301,7 +13369,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13338,7 +13408,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13375,7 +13447,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13412,7 +13486,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13449,7 +13525,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13486,7 +13564,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13523,7 +13603,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13560,7 +13642,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13597,7 +13681,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13634,7 +13720,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13671,7 +13759,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13708,7 +13798,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13745,7 +13837,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13782,7 +13876,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13819,7 +13915,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13856,7 +13954,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13893,7 +13993,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13930,7 +14032,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13967,7 +14071,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14004,7 +14110,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14041,7 +14149,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14078,7 +14188,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14115,7 +14227,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14152,7 +14266,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14189,7 +14305,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,7 +14344,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14263,7 +14383,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14300,7 +14422,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14337,7 +14461,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14374,7 +14500,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14411,7 +14539,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14448,7 +14578,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14485,7 +14617,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14522,7 +14656,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14559,7 +14695,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14596,7 +14734,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14633,7 +14773,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14670,7 +14812,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14707,7 +14851,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14744,7 +14890,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14781,7 +14929,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14818,7 +14968,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14855,7 +15007,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14892,7 +15046,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14929,7 +15085,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14966,7 +15124,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15003,7 +15163,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15040,7 +15202,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15077,7 +15241,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15114,7 +15280,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15151,7 +15319,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15188,7 +15358,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15225,7 +15397,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15262,7 +15436,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15299,7 +15475,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15336,7 +15514,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15373,7 +15553,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15410,7 +15592,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15447,7 +15631,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15484,7 +15670,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15521,7 +15709,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15558,7 +15748,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15595,7 +15787,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15632,7 +15826,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15669,7 +15865,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15706,7 +15904,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15743,7 +15943,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15780,7 +15982,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>0.4188</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15792,6 +15996,6 @@
       <c r="M446" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BTT.xlsx
+++ b/BackTest/2020-01-19 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>110125534.4548605</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>127719946.7272877</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>118696614.0179516</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>118860451.0179516</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>118894799.5410516</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>118894799.5410516</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>114828874.4367516</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>112656623.2265516</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>112708721.3386516</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>112668835.5013516</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>100334298.4937516</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>100386782.2515516</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>100386782.2515516</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>99701363.22515164</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>117584950.2190433</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>116180620.2683433</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>117722989.0553509</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>116094748.258627</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>115973326.851527</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>117010819.419527</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>116484355.715927</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>116517150.945327</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>116515541.069827</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>210940226.296878</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>230803079.5859525</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>245663782.6941525</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>238572243.7799525</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>246190463.4463525</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>243966645.6169525</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>228565303.5201525</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>232375303.5150525</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>209122560.0102525</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>208643937.2512525</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>192433730.6380026</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>190020856.0406026</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>187285566.8132026</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>184866066.2708026</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>187236915.0834025</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>186506730.8600025</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>186506730.8600025</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>186506730.8600025</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>139504752.6868013</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>107606591.9304012</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>107710935.7252012</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -10318,14 +10318,10 @@
         <v>-54736200.79068567</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="J301" t="n">
-        <v>0.417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
@@ -10355,3028 +10351,2612 @@
         <v>-54736200.79068567</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
         <v>0.4189</v>
       </c>
-      <c r="J302" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="K302" t="inlineStr">
+      <c r="C303" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="F303" t="n">
+        <v>95493.88370000001</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-54831694.67438567</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="F304" t="n">
+        <v>322832.1935</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-54831694.67438567</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="F305" t="n">
+        <v>355230.0341</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-54476464.64028566</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="F306" t="n">
+        <v>95255.10619999999</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-54476464.64028566</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="F307" t="n">
+        <v>754959.5884</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-54476464.64028566</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="F308" t="n">
+        <v>23820.8671</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-54500285.50738566</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.4197</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.4193</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.4197</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.4193</v>
+      </c>
+      <c r="F309" t="n">
+        <v>143027.4273</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-54643312.93468566</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.4192</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.4192</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.4192</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.4192</v>
+      </c>
+      <c r="F310" t="n">
+        <v>803082</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-55446394.93468566</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.4191</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.4191</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="F311" t="n">
+        <v>47727.0023</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-55494121.93698566</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="F312" t="n">
+        <v>238794.5875</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-55732916.52448566</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="F313" t="n">
+        <v>108404.679</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-55732916.52448566</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="F314" t="n">
+        <v>9745.874599999999</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-55742662.39908566</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F315" t="n">
+        <v>667453.2947</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-55075209.10438567</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="F316" t="n">
+        <v>10109061.2543</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-44966147.85008567</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1844.2107</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-44964303.63938567</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="F318" t="n">
+        <v>23573.786</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-44964303.63938567</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="F319" t="n">
+        <v>117874.4885</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-45082178.12788567</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="F320" t="n">
+        <v>57022.4403</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-45082178.12788567</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="F321" t="n">
+        <v>94350.7504</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-45176528.87828567</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="F322" t="n">
+        <v>106635.9193</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-45283164.79758567</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F323" t="n">
+        <v>227134.0647</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-45510298.86228567</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.4191</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.4191</v>
+      </c>
+      <c r="F324" t="n">
+        <v>332982.5379</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-45843281.40018567</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.4191</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.4191</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1186271.1596</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-47029552.55978566</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="F326" t="n">
+        <v>81599.04549999999</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-47029552.55978566</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="F327" t="n">
+        <v>23820.8671</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-47005731.69268566</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F328" t="n">
+        <v>309523.8095</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-46696207.88318566</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="F329" t="n">
+        <v>727360.0211</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-45968847.86208566</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="F330" t="n">
+        <v>6996.0527</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-45961851.80938566</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="F331" t="n">
+        <v>283161.9485</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-45961851.80938566</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.4216</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.4216</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1902242.1112</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-47864093.92058566</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="F333" t="n">
+        <v>564474.6642</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-47299619.25638566</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="F334" t="n">
+        <v>32043.4798</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-47299619.25638566</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="F335" t="n">
+        <v>341266.7815</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-46958352.47488566</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1235472.3392</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-45722880.13568567</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="F337" t="n">
+        <v>2862261.2769</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-48585141.41258567</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="F338" t="n">
+        <v>8412.263800000001</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-48576729.14878567</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="F339" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-49576729.14878567</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.4246</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2969531.17</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-52546260.31878567</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1987450.8617</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-54533711.18048567</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.4271</v>
+      </c>
+      <c r="F342" t="n">
+        <v>234137.20440177</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-54299573.9760839</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F343" t="n">
+        <v>7010</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-54306583.9760839</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="F344" t="n">
+        <v>40165.3752</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-54346749.3512839</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F345" t="n">
+        <v>23596.0359</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-54370345.3871839</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.4237</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.4237</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="F346" t="n">
+        <v>118063.7678</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-54488409.1549839</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.4229</v>
+      </c>
+      <c r="F347" t="n">
+        <v>4317062.82907128</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-50171346.32591262</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1797746.8168</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-50171346.32591262</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2349624.0602</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-47821722.26571263</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="F350" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-47820511.26571263</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="F351" t="n">
+        <v>47298.097</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-47867809.36271263</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="F352" t="n">
+        <v>94545.8881</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-47773263.47461263</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="F353" t="n">
+        <v>51544.5139</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-47721718.96071263</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="F354" t="n">
+        <v>490931</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-47721718.96071263</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.4284</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.4284</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="F355" t="n">
+        <v>767606.363</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-47721718.96071263</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-47721718.96071263</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1313.2204</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-47720405.74031264</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="F358" t="n">
+        <v>4458293.9231</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-52178699.66341264</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="F359" t="n">
+        <v>116577.29074376</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-52062122.37266888</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="F360" t="n">
+        <v>3580</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-52065702.37266888</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="F361" t="n">
+        <v>5374814.2626</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-57440516.63526887</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="F362" t="n">
+        <v>132800.2048</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-57573316.84006888</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="F363" t="n">
+        <v>2593056.95385524</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-54980259.88621364</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1427067.2075</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-56407327.09371364</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="F365" t="n">
+        <v>2208052.4303</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-58615379.52401364</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.4237</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.4237</v>
+      </c>
+      <c r="F366" t="n">
+        <v>111766.3606</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-58727145.88461364</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="F367" t="n">
+        <v>23607.1766</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-58750753.06121364</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.4207</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.4207</v>
+      </c>
+      <c r="F368" t="n">
+        <v>10600518.4007</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-69351271.46191365</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.4207</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.4207</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.4207</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.4207</v>
+      </c>
+      <c r="F369" t="n">
+        <v>73411.50750000001</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-69351271.46191365</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="F370" t="n">
+        <v>301054.0692</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-69050217.39271365</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="F371" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-69059217.39271365</v>
+      </c>
+      <c r="H371" t="n">
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="F372" t="n">
+        <v>4992927.2304</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-74052144.62311365</v>
+      </c>
+      <c r="H372" t="n">
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="K372" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="C303" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="D303" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="E303" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="F303" t="n">
-        <v>95493.88370000001</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-54831694.67438567</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0.4189</v>
-      </c>
-      <c r="J303" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="K303" t="inlineStr">
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="F373" t="n">
+        <v>695270.9051</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-74747415.52821365</v>
+      </c>
+      <c r="H373" t="n">
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="K373" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="C304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="D304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="E304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="F304" t="n">
-        <v>322832.1935</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-54831694.67438567</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="J304" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="C305" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="D305" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="E305" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="F305" t="n">
-        <v>355230.0341</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-54476464.64028566</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="J305" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K305" t="inlineStr">
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="F374" t="n">
+        <v>1231.9001</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-74746183.62811366</v>
+      </c>
+      <c r="H374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="F375" t="n">
+        <v>2465224.4094</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-72280959.21871366</v>
+      </c>
+      <c r="H375" t="n">
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="F376" t="n">
+        <v>5249593.7279</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-67031365.49081366</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="F377" t="n">
+        <v>5874.7271</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-67037240.21791366</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.4225</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.4225</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.4225</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.4225</v>
+      </c>
+      <c r="F378" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-67072240.21791366</v>
+      </c>
+      <c r="H378" t="n">
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.4233</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="F379" t="n">
+        <v>8123874.041</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-58948366.17691366</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.4225</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="K379" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="C306" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="D306" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="E306" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="F306" t="n">
-        <v>95255.10619999999</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-54476464.64028566</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="J306" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="C307" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="D307" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="E307" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="F307" t="n">
-        <v>754959.5884</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-54476464.64028566</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="J307" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="C308" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="D308" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="E308" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="F308" t="n">
-        <v>23820.8671</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-54500285.50738566</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>0.4197</v>
-      </c>
-      <c r="C309" t="n">
-        <v>0.4193</v>
-      </c>
-      <c r="D309" t="n">
-        <v>0.4197</v>
-      </c>
-      <c r="E309" t="n">
-        <v>0.4193</v>
-      </c>
-      <c r="F309" t="n">
-        <v>143027.4273</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-54643312.93468566</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>0.4192</v>
-      </c>
-      <c r="C310" t="n">
-        <v>0.4192</v>
-      </c>
-      <c r="D310" t="n">
-        <v>0.4192</v>
-      </c>
-      <c r="E310" t="n">
-        <v>0.4192</v>
-      </c>
-      <c r="F310" t="n">
-        <v>803082</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-55446394.93468566</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>0.4191</v>
-      </c>
-      <c r="C311" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D311" t="n">
-        <v>0.4191</v>
-      </c>
-      <c r="E311" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="F311" t="n">
-        <v>47727.0023</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-55494121.93698566</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="C312" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="D312" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="E312" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="F312" t="n">
-        <v>238794.5875</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-55732916.52448566</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="C313" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="D313" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="E313" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="F313" t="n">
-        <v>108404.679</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-55732916.52448566</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>0.4185</v>
-      </c>
-      <c r="C314" t="n">
-        <v>0.4185</v>
-      </c>
-      <c r="D314" t="n">
-        <v>0.4185</v>
-      </c>
-      <c r="E314" t="n">
-        <v>0.4185</v>
-      </c>
-      <c r="F314" t="n">
-        <v>9745.874599999999</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-55742662.39908566</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C315" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D315" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E315" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F315" t="n">
-        <v>667453.2947</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-55075209.10438567</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="C316" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="D316" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="E316" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="F316" t="n">
-        <v>10109061.2543</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-44966147.85008567</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="C317" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="D317" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="E317" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1844.2107</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-44964303.63938567</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="C318" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="D318" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="E318" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="F318" t="n">
-        <v>23573.786</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-44964303.63938567</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="C319" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="D319" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="E319" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="F319" t="n">
-        <v>117874.4885</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-45082178.12788567</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="C320" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="D320" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="E320" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="F320" t="n">
-        <v>57022.4403</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-45082178.12788567</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="C321" t="n">
-        <v>0.4239</v>
-      </c>
-      <c r="D321" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="E321" t="n">
-        <v>0.4239</v>
-      </c>
-      <c r="F321" t="n">
-        <v>94350.7504</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-45176528.87828567</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="C322" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="D322" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="E322" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="F322" t="n">
-        <v>106635.9193</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-45283164.79758567</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="C323" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D323" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="E323" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F323" t="n">
-        <v>227134.0647</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-45510298.86228567</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="C324" t="n">
-        <v>0.4191</v>
-      </c>
-      <c r="D324" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="E324" t="n">
-        <v>0.4191</v>
-      </c>
-      <c r="F324" t="n">
-        <v>332982.5379</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-45843281.40018567</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>0.4191</v>
-      </c>
-      <c r="C325" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D325" t="n">
-        <v>0.4191</v>
-      </c>
-      <c r="E325" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="F325" t="n">
-        <v>1186271.1596</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-47029552.55978566</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="C326" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D326" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="E326" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="F326" t="n">
-        <v>81599.04549999999</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-47029552.55978566</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="C327" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="D327" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="E327" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="F327" t="n">
-        <v>23820.8671</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-47005731.69268566</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C328" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D328" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E328" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F328" t="n">
-        <v>309523.8095</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-46696207.88318566</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="C329" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="D329" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="E329" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="F329" t="n">
-        <v>727360.0211</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-45968847.86208566</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="C330" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="D330" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="E330" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="F330" t="n">
-        <v>6996.0527</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-45961851.80938566</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="C331" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="D331" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="E331" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="F331" t="n">
-        <v>283161.9485</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-45961851.80938566</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="C332" t="n">
-        <v>0.4216</v>
-      </c>
-      <c r="D332" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="E332" t="n">
-        <v>0.4216</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1902242.1112</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-47864093.92058566</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="C333" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="D333" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="E333" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="F333" t="n">
-        <v>564474.6642</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-47299619.25638566</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="C334" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="D334" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="E334" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="F334" t="n">
-        <v>32043.4798</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-47299619.25638566</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="C335" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="D335" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="E335" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="F335" t="n">
-        <v>341266.7815</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-46958352.47488566</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="C336" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="D336" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="E336" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="F336" t="n">
-        <v>1235472.3392</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-45722880.13568567</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="C337" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="D337" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="E337" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="F337" t="n">
-        <v>2862261.2769</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-48585141.41258567</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="C338" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="D338" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="E338" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="F338" t="n">
-        <v>8412.263800000001</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-48576729.14878567</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="C339" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="D339" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="E339" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="F339" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-49576729.14878567</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>0.4246</v>
-      </c>
-      <c r="C340" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="D340" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="E340" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="F340" t="n">
-        <v>2969531.17</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-52546260.31878567</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="C341" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="D341" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="E341" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="F341" t="n">
-        <v>1987450.8617</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-54533711.18048567</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="C342" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="D342" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="E342" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="F342" t="n">
-        <v>234137.20440177</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-54299573.9760839</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="C343" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="D343" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="E343" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="F343" t="n">
-        <v>7010</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-54306583.9760839</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="C344" t="n">
-        <v>0.4239</v>
-      </c>
-      <c r="D344" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="E344" t="n">
-        <v>0.4239</v>
-      </c>
-      <c r="F344" t="n">
-        <v>40165.3752</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-54346749.3512839</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="C345" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="D345" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="E345" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="F345" t="n">
-        <v>23596.0359</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-54370345.3871839</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>0.4237</v>
-      </c>
-      <c r="C346" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="D346" t="n">
-        <v>0.4237</v>
-      </c>
-      <c r="E346" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="F346" t="n">
-        <v>118063.7678</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-54488409.1549839</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="C347" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="D347" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="E347" t="n">
-        <v>0.4229</v>
-      </c>
-      <c r="F347" t="n">
-        <v>4317062.82907128</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-50171346.32591262</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="C348" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="D348" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="E348" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="F348" t="n">
-        <v>1797746.8168</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-50171346.32591262</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="C349" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="D349" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="E349" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="F349" t="n">
-        <v>2349624.0602</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-47821722.26571263</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="C350" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="D350" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="E350" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="F350" t="n">
-        <v>1211</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-47820511.26571263</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="C351" t="n">
-        <v>0.4249</v>
-      </c>
-      <c r="D351" t="n">
-        <v>0.4249</v>
-      </c>
-      <c r="E351" t="n">
-        <v>0.4247</v>
-      </c>
-      <c r="F351" t="n">
-        <v>47298.097</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-47867809.36271263</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="C352" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="D352" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="E352" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="F352" t="n">
-        <v>94545.8881</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-47773263.47461263</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="C353" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="D353" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="E353" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="F353" t="n">
-        <v>51544.5139</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-47721718.96071263</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="C354" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="D354" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="E354" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="F354" t="n">
-        <v>490931</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-47721718.96071263</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>0.4284</v>
-      </c>
-      <c r="C355" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="D355" t="n">
-        <v>0.4284</v>
-      </c>
-      <c r="E355" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="F355" t="n">
-        <v>767606.363</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-47721718.96071263</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="C356" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="D356" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="E356" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="F356" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-47721718.96071263</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="C357" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="D357" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="E357" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="F357" t="n">
-        <v>1313.2204</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-47720405.74031264</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="C358" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="D358" t="n">
-        <v>0.4283</v>
-      </c>
-      <c r="E358" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="F358" t="n">
-        <v>4458293.9231</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-52178699.66341264</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="C359" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="D359" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="E359" t="n">
-        <v>0.4289</v>
-      </c>
-      <c r="F359" t="n">
-        <v>116577.29074376</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-52062122.37266888</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>0.4288</v>
-      </c>
-      <c r="C360" t="n">
-        <v>0.4288</v>
-      </c>
-      <c r="D360" t="n">
-        <v>0.4288</v>
-      </c>
-      <c r="E360" t="n">
-        <v>0.4288</v>
-      </c>
-      <c r="F360" t="n">
-        <v>3580</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-52065702.37266888</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0.4288</v>
-      </c>
-      <c r="C361" t="n">
-        <v>0.4287</v>
-      </c>
-      <c r="D361" t="n">
-        <v>0.4288</v>
-      </c>
-      <c r="E361" t="n">
-        <v>0.4287</v>
-      </c>
-      <c r="F361" t="n">
-        <v>5374814.2626</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-57440516.63526887</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0.4285</v>
-      </c>
-      <c r="C362" t="n">
-        <v>0.4285</v>
-      </c>
-      <c r="D362" t="n">
-        <v>0.4285</v>
-      </c>
-      <c r="E362" t="n">
-        <v>0.4285</v>
-      </c>
-      <c r="F362" t="n">
-        <v>132800.2048</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-57573316.84006888</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>0.4285</v>
-      </c>
-      <c r="C363" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="D363" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="E363" t="n">
-        <v>0.4285</v>
-      </c>
-      <c r="F363" t="n">
-        <v>2593056.95385524</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-54980259.88621364</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="C364" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="D364" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="E364" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="F364" t="n">
-        <v>1427067.2075</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-56407327.09371364</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="C365" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="D365" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="E365" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="F365" t="n">
-        <v>2208052.4303</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-58615379.52401364</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="C366" t="n">
-        <v>0.4237</v>
-      </c>
-      <c r="D366" t="n">
-        <v>0.4241</v>
-      </c>
-      <c r="E366" t="n">
-        <v>0.4237</v>
-      </c>
-      <c r="F366" t="n">
-        <v>111766.3606</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-58727145.88461364</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="C367" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="D367" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="E367" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="F367" t="n">
-        <v>23607.1766</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-58750753.06121364</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="C368" t="n">
-        <v>0.4207</v>
-      </c>
-      <c r="D368" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="E368" t="n">
-        <v>0.4207</v>
-      </c>
-      <c r="F368" t="n">
-        <v>10600518.4007</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-69351271.46191365</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0.4207</v>
-      </c>
-      <c r="C369" t="n">
-        <v>0.4207</v>
-      </c>
-      <c r="D369" t="n">
-        <v>0.4207</v>
-      </c>
-      <c r="E369" t="n">
-        <v>0.4207</v>
-      </c>
-      <c r="F369" t="n">
-        <v>73411.50750000001</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-69351271.46191365</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="C370" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="D370" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="E370" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="F370" t="n">
-        <v>301054.0692</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-69050217.39271365</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="C371" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="E371" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="F371" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-69059217.39271365</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="C372" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="E372" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="F372" t="n">
-        <v>4992927.2304</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-74052144.62311365</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0.4213</v>
-      </c>
-      <c r="C373" t="n">
-        <v>0.4213</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0.4213</v>
-      </c>
-      <c r="E373" t="n">
-        <v>0.4213</v>
-      </c>
-      <c r="F373" t="n">
-        <v>695270.9051</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-74747415.52821365</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="C374" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="E374" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="F374" t="n">
-        <v>1231.9001</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-74746183.62811366</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="C375" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="E375" t="n">
-        <v>0.4235</v>
-      </c>
-      <c r="F375" t="n">
-        <v>2465224.4094</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-72280959.21871366</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="C376" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="E376" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="F376" t="n">
-        <v>5249593.7279</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-67031365.49081366</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="C377" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="D377" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="E377" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="F377" t="n">
-        <v>5874.7271</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-67037240.21791366</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.4225</v>
-      </c>
-      <c r="C378" t="n">
-        <v>0.4225</v>
-      </c>
-      <c r="D378" t="n">
-        <v>0.4225</v>
-      </c>
-      <c r="E378" t="n">
-        <v>0.4225</v>
-      </c>
-      <c r="F378" t="n">
-        <v>35000</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-67072240.21791366</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="C379" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="D379" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="E379" t="n">
-        <v>0.4231</v>
-      </c>
-      <c r="F379" t="n">
-        <v>8123874.041</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-58948366.17691366</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13405,11 +12985,13 @@
         <v>-57955456.23242038</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.4231</v>
+      </c>
       <c r="J380" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13444,11 +13026,13 @@
         <v>-57960141.17034495</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.4271</v>
+      </c>
       <c r="J381" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13483,11 +13067,13 @@
         <v>-58030464.65838995</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.4269</v>
+      </c>
       <c r="J382" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13526,7 +13112,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13565,7 +13151,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13604,7 +13190,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13643,7 +13229,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13678,11 +13264,13 @@
         <v>-58242279.05188995</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.4237</v>
+      </c>
       <c r="J387" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13717,11 +13305,13 @@
         <v>-58242279.05188995</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.424</v>
+      </c>
       <c r="J388" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13756,11 +13346,13 @@
         <v>-58240891.81808995</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.424</v>
+      </c>
       <c r="J389" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13795,11 +13387,13 @@
         <v>-58855694.44558994</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.4266</v>
+      </c>
       <c r="J390" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13838,7 +13432,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13873,11 +13467,13 @@
         <v>-60852837.53828994</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.4228</v>
+      </c>
       <c r="J392" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13912,11 +13508,13 @@
         <v>-57143165.34498994</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.4211</v>
+      </c>
       <c r="J393" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13951,11 +13549,13 @@
         <v>-57141943.34498994</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.4217</v>
+      </c>
       <c r="J394" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13990,11 +13590,13 @@
         <v>-57488643.95988994</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.4255</v>
+      </c>
       <c r="J395" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14029,11 +13631,13 @@
         <v>-57488643.95988994</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.4217</v>
+      </c>
       <c r="J396" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14068,11 +13672,13 @@
         <v>-56478046.09348994</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.4217</v>
+      </c>
       <c r="J397" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14107,11 +13713,13 @@
         <v>-56471050.04078994</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.422</v>
+      </c>
       <c r="J398" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14146,11 +13754,13 @@
         <v>-56469848.59368994</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.4223</v>
+      </c>
       <c r="J399" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14185,11 +13795,13 @@
         <v>-56469848.59368994</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.4285</v>
+      </c>
       <c r="J400" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14228,7 +13840,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14267,7 +13879,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14306,7 +13918,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14345,7 +13957,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14384,7 +13996,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14423,7 +14035,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14462,7 +14074,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14501,7 +14113,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14540,7 +14152,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14579,7 +14191,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14618,7 +14230,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14657,7 +14269,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14696,7 +14308,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14735,7 +14347,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14774,7 +14386,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14813,7 +14425,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14852,7 +14464,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14891,7 +14503,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14930,7 +14542,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14969,7 +14581,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15008,7 +14620,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15047,7 +14659,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15086,7 +14698,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15125,7 +14737,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15164,7 +14776,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15203,7 +14815,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15242,7 +14854,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15281,7 +14893,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15320,7 +14932,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15359,7 +14971,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15398,7 +15010,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15437,7 +15049,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15476,7 +15088,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15515,7 +15127,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15554,7 +15166,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15593,7 +15205,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15632,7 +15244,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15671,7 +15283,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15710,7 +15322,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15749,7 +15361,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15788,7 +15400,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15827,7 +15439,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15866,7 +15478,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15905,7 +15517,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15944,7 +15556,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15983,7 +15595,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>0.4188</v>
+        <v>0.424</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15996,6 +15608,6 @@
       <c r="M446" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BTT.xlsx
+++ b/BackTest/2020-01-19 BackTest BTT.xlsx
@@ -1408,7 +1408,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>110125534.4548605</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>127719946.7272877</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>118696614.0179516</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>118860451.0179516</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>118894799.5410516</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>118894799.5410516</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>114828874.4367516</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>112656623.2265516</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>112708721.3386516</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>112668835.5013516</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>100334298.4937516</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>100386782.2515516</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>100386782.2515516</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>99701363.22515164</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>117584950.2190433</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>116180620.2683433</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>117722989.0553509</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>116094748.258627</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>115973326.851527</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>117010819.419527</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>116484355.715927</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>116517150.945327</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>116515541.069827</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>210940226.296878</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>234839197.7975428</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>237395840.5455428</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>265300499.227979</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>243679475.1245394</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>230803079.5859525</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>245663782.6941525</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>238572243.7799525</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>262338681.2653525</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>246190463.4463525</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>243966645.6169525</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>213243452.7589525</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>213143452.7589525</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>213193452.7589525</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>209317137.2204525</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>209341444.3583525</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>209341444.3583525</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>206794727.4222524</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>194380441.8087524</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>192001814.1946524</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>194163856.5789025</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>192081352.5145026</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>192432557.6992026</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>187285566.8132026</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>187236915.0834025</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -10747,10 +10747,14 @@
         <v>-55742662.39908566</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.4186</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
@@ -10780,11 +10784,19 @@
         <v>-55075209.10438567</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +10825,19 @@
         <v>-44966147.85008567</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +10998,17 @@
         <v>-45176528.87828567</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.4241</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11041,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11078,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11115,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11148,17 @@
         <v>-47029552.55978566</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.4191</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11187,17 @@
         <v>-47029552.55978566</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.419</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11226,17 @@
         <v>-47005731.69268566</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.419</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11265,17 @@
         <v>-46696207.88318566</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.4198</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11304,17 @@
         <v>-45968847.86208566</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.42</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11343,17 @@
         <v>-45961851.80938566</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.423</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11382,17 @@
         <v>-45961851.80938566</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.4231</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11421,17 @@
         <v>-47864093.92058566</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.4231</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11460,17 @@
         <v>-47299619.25638566</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.4216</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11499,17 @@
         <v>-47299619.25638566</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.4236</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11538,17 @@
         <v>-46958352.47488566</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.4236</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11577,17 @@
         <v>-45722880.13568567</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.4271</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11616,17 @@
         <v>-48585141.41258567</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.4274</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11655,17 @@
         <v>-48576729.14878567</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.427</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11694,17 @@
         <v>-49576729.14878567</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.4289</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11733,17 @@
         <v>-52546260.31878567</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.4248</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11772,17 @@
         <v>-54533711.18048567</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.4242</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11811,17 @@
         <v>-54299573.9760839</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.4241</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11850,17 @@
         <v>-54306583.9760839</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.4271</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +11889,17 @@
         <v>-54346749.3512839</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.424</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11928,17 @@
         <v>-54370345.3871839</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.4239</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +11967,17 @@
         <v>-54488409.1549839</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.4238</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12006,17 @@
         <v>-50171346.32591262</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.4233</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12045,17 @@
         <v>-50171346.32591262</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.4242</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12084,17 @@
         <v>-47821722.26571263</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.4242</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12123,17 @@
         <v>-47820511.26571263</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.4255</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12162,17 @@
         <v>-47867809.36271263</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.4274</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12201,17 @@
         <v>-47773263.47461263</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.4249</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12240,17 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.425</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12279,17 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.4283</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12318,17 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.4283</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12357,17 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.4283</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12396,17 @@
         <v>-47720405.74031264</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.4283</v>
+      </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12435,17 @@
         <v>-52178699.66341264</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.429</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12474,17 @@
         <v>-52062122.37266888</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.4242</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12513,17 @@
         <v>-52065702.37266888</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.4289</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12552,17 @@
         <v>-57440516.63526887</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.4288</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12591,17 @@
         <v>-57573316.84006888</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.4287</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12630,17 @@
         <v>-54980259.88621364</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.4285</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12669,17 @@
         <v>-56407327.09371364</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.4286</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12708,17 @@
         <v>-58615379.52401364</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.4242</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12747,17 @@
         <v>-58727145.88461364</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.4241</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12786,17 @@
         <v>-58750753.06121364</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.4237</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12825,17 @@
         <v>-69351271.46191365</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.4236</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12864,17 @@
         <v>-69351271.46191365</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.4207</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12903,17 @@
         <v>-69050217.39271365</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.4207</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12633,10 +12947,12 @@
       <c r="I371" t="n">
         <v>0.4236</v>
       </c>
-      <c r="J371" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12670,12 +12986,10 @@
       <c r="I372" t="n">
         <v>0.4235</v>
       </c>
-      <c r="J372" t="n">
-        <v>0.4236</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L372" t="n">
@@ -12711,12 +13025,10 @@
       <c r="I373" t="n">
         <v>0.4231</v>
       </c>
-      <c r="J373" t="n">
-        <v>0.4236</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -12752,10 +13064,12 @@
       <c r="I374" t="n">
         <v>0.4213</v>
       </c>
-      <c r="J374" t="n">
-        <v>0.4213</v>
-      </c>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12789,12 +13103,10 @@
       <c r="I375" t="n">
         <v>0.4235</v>
       </c>
-      <c r="J375" t="n">
-        <v>0.4213</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L375" t="n">
@@ -12830,12 +13142,10 @@
       <c r="I376" t="n">
         <v>0.4238</v>
       </c>
-      <c r="J376" t="n">
-        <v>0.4213</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L376" t="n">
@@ -12871,10 +13181,12 @@
       <c r="I377" t="n">
         <v>0.424</v>
       </c>
-      <c r="J377" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12908,12 +13220,10 @@
       <c r="I378" t="n">
         <v>0.4232</v>
       </c>
-      <c r="J378" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L378" t="n">
@@ -12949,12 +13259,10 @@
       <c r="I379" t="n">
         <v>0.4225</v>
       </c>
-      <c r="J379" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -12990,9 +13298,7 @@
       <c r="I380" t="n">
         <v>0.4231</v>
       </c>
-      <c r="J380" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13026,14 +13332,10 @@
         <v>-57960141.17034495</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>0.4271</v>
-      </c>
-      <c r="J381" t="n">
-        <v>0.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13067,14 +13369,10 @@
         <v>-58030464.65838995</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>0.4269</v>
-      </c>
-      <c r="J382" t="n">
-        <v>0.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,9 +13409,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13150,9 +13446,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13189,9 +13483,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13228,9 +13520,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13264,14 +13554,10 @@
         <v>-58242279.05188995</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>0.4237</v>
-      </c>
-      <c r="J387" t="n">
-        <v>0.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13310,9 +13596,7 @@
       <c r="I388" t="n">
         <v>0.424</v>
       </c>
-      <c r="J388" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13346,14 +13630,10 @@
         <v>-58240891.81808995</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="J389" t="n">
-        <v>0.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13387,14 +13667,10 @@
         <v>-58855694.44558994</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>0.4266</v>
-      </c>
-      <c r="J390" t="n">
-        <v>0.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13431,9 +13707,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13467,14 +13741,10 @@
         <v>-60852837.53828994</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>0.4228</v>
-      </c>
-      <c r="J392" t="n">
-        <v>0.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13513,9 +13783,7 @@
       <c r="I393" t="n">
         <v>0.4211</v>
       </c>
-      <c r="J393" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13554,9 +13822,7 @@
       <c r="I394" t="n">
         <v>0.4217</v>
       </c>
-      <c r="J394" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13590,14 +13856,10 @@
         <v>-57488643.95988994</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>0.4255</v>
-      </c>
-      <c r="J395" t="n">
-        <v>0.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13636,9 +13898,7 @@
       <c r="I396" t="n">
         <v>0.4217</v>
       </c>
-      <c r="J396" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13677,9 +13937,7 @@
       <c r="I397" t="n">
         <v>0.4217</v>
       </c>
-      <c r="J397" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13718,9 +13976,7 @@
       <c r="I398" t="n">
         <v>0.422</v>
       </c>
-      <c r="J398" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13759,9 +14015,7 @@
       <c r="I399" t="n">
         <v>0.4223</v>
       </c>
-      <c r="J399" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13795,14 +14049,10 @@
         <v>-56469848.59368994</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>0.4285</v>
-      </c>
-      <c r="J400" t="n">
-        <v>0.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,9 +14089,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13878,9 +14126,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13917,9 +14163,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13956,9 +14200,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13995,9 +14237,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,9 +14274,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14073,9 +14311,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14112,9 +14348,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,9 +14385,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14190,9 +14422,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,9 +14459,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,9 +14496,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14307,9 +14533,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,9 +14570,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,9 +14607,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14424,9 +14644,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,9 +14681,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,9 +14718,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14541,9 +14755,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14580,9 +14792,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14619,9 +14829,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14658,9 +14866,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14697,9 +14903,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14736,9 +14940,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14775,9 +14977,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14814,9 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14853,9 +15051,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14892,9 +15088,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,9 +15125,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14970,9 +15162,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15009,9 +15199,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,9 +15236,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15087,9 +15273,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15126,9 +15310,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,9 +15347,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,9 +15384,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,9 +15421,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15282,9 +15458,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,9 +15495,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15360,9 +15532,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15399,9 +15569,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15438,9 +15606,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15477,9 +15643,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15516,9 +15680,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15555,9 +15717,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15594,9 +15754,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>0.424</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
